--- a/ドキュメント/クラス設計書.xlsx
+++ b/ドキュメント/クラス設計書.xlsx
@@ -8,7 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="クラス名" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="会員情報クラス" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="宿情報クラス" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="予約情報(会員視点)クラス" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="宿予約情報クラス" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -557,13 +560,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
@@ -984,298 +987,12 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A46"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1285,4 +1002,367 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A19"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ドキュメント/クラス設計書.xlsx
+++ b/ドキュメント/クラス設計書.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="会員情報クラス" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="宿情報クラス" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="予約情報(会員視点)クラス" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="宿予約情報クラス" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="会員ログイン情報クラス" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="宿情報クラス" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="予約情報(会員視点)クラス" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="宿予約情報クラス" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="102">
   <si>
     <t xml:space="preserve">クラス名</t>
   </si>
   <si>
-    <t xml:space="preserve">KaiinClass (会員モデル）</t>
+    <t xml:space="preserve">MemberInformationClass (会員モデル）</t>
   </si>
   <si>
     <t xml:space="preserve">種別</t>
@@ -52,7 +53,7 @@
     <t xml:space="preserve">プロパティ</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">mem_id</t>
   </si>
   <si>
     <t xml:space="preserve">private</t>
@@ -76,175 +77,259 @@
     <t xml:space="preserve">名前</t>
   </si>
   <si>
+    <t xml:space="preserve">phoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mailアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンストラクタ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KaiinClass()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デフォルトコンストラクタ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KaiinClass(Map requestParams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リクエストパラメータのMap から、各フィールドにパラメータをセットする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setMem_Id(int mem_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：会員ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setName(String name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setPhoneNumber(int phoneNumber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setEmail(String email)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：E-mailアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setMem_Address(String mem_address)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setBirthday(String birthday)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setEn_date(String en_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：登録日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setSe_date(String se_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：退会日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getMem_Id(int mem_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：会員ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getName(String name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getPhoneNumber(int phoneNumber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getEmail(String email)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：E-mailアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getMem_Address(String mem_address)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getBirthday(String birthday)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MemberInformationLoginClass(会員ログイン情報クラス）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインID</t>
+  </si>
+  <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード</t>
   </si>
   <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mailアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phoneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電話番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンストラクタ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KaiinClass()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトコンストラクタ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KaiinClass(Map requestParams)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リクエストパラメータのMap から、各フィールドにパラメータをセットする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setId(int id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">セッター：会員ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setName(String name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">セッター：名前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setPassword(int password)</t>
+    <t xml:space="preserve">setLogin_id(String login_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：ログインID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setPassword(String password)</t>
   </si>
   <si>
     <t xml:space="preserve">セッター：パスワード</t>
   </si>
   <si>
-    <t xml:space="preserve">setEmail(String email)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">セッター：E-mailアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setPhoneNumber(int phoneNumber)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">セッター：電話番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setAddress(String address)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">セッター：住所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setBirthday(String birthday)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">セッター：生年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getId(int id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲッター：会員ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getName(String name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲッター：名前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPassword(int password)</t>
+    <t xml:space="preserve">getLogin_id(String login_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：ログインID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getPassword(String password)</t>
   </si>
   <si>
     <t xml:space="preserve">ゲッター：パスワード</t>
   </si>
   <si>
-    <t xml:space="preserve">getEmail(String email)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲッター：E-mailアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPhoneNumber(int phoneNumber)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲッター：電話番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAddress(String address)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲッター：住所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getBirthday(String birthday)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲッター：生年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YadoClass (会員モデル）</t>
+    <t xml:space="preserve">AccommodationInformationClass (会員モデル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宿ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac_name</t>
   </si>
   <si>
     <t xml:space="preserve">宿の名前</t>
   </si>
   <si>
-    <t xml:space="preserve">b_code</t>
+    <t xml:space="preserve">ac_code</t>
   </si>
   <si>
     <t xml:space="preserve">分類コード</t>
   </si>
   <si>
+    <t xml:space="preserve">ac_address</t>
+  </si>
+  <si>
     <t xml:space="preserve">YadoClass()</t>
   </si>
   <si>
     <t xml:space="preserve">YadoClass(Map requestParams)</t>
   </si>
   <si>
+    <t xml:space="preserve">setAc_id(int ac_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：宿ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setAc_name(String ac_name)</t>
+  </si>
+  <si>
     <t xml:space="preserve">セッター：宿の名前</t>
   </si>
   <si>
-    <t xml:space="preserve">setB_code(int b_code)</t>
+    <t xml:space="preserve">setAc_code(int ac_code)</t>
   </si>
   <si>
     <t xml:space="preserve">セッター：分類コード</t>
   </si>
   <si>
+    <t xml:space="preserve">setAc_address(String ac_address)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAc_id(int ac_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：宿ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAc_name(String ac_name)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ゲッター：宿の名前</t>
   </si>
   <si>
+    <t xml:space="preserve">getAc_code(int Ac_code)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ゲッター：分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAc_address(String ac_address)</t>
   </si>
 </sst>
 </file>
@@ -560,13 +645,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
@@ -606,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -626,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>14</v>
@@ -658,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>19</v>
@@ -674,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>21</v>
@@ -724,269 +809,276 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
@@ -1009,17 +1101,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1059,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -1069,29 +1161,31 @@
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -1101,215 +1195,143 @@
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="F10" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1326,14 +1348,284 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A16"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1351,11 +1643,34 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ドキュメント/クラス設計書.xlsx
+++ b/ドキュメント/クラス設計書.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="会員情報クラス" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="会員ログイン情報クラス" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="宿情報クラス" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="予約情報(会員視点)クラス" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="宿予約情報クラス" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="宿予約情報クラス" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="会員用宿予約確認クラス" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="135">
   <si>
     <t xml:space="preserve">クラス名</t>
   </si>
   <si>
-    <t xml:space="preserve">MemberInformationClass (会員モデル）</t>
+    <t xml:space="preserve">MemberInformationClass (会員情報クラス）</t>
   </si>
   <si>
     <t xml:space="preserve">種別</t>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">private</t>
   </si>
   <si>
-    <t xml:space="preserve">static</t>
-  </si>
-  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
@@ -116,7 +113,36 @@
     <t xml:space="preserve">コンストラクタ</t>
   </si>
   <si>
-    <t xml:space="preserve">KaiinClass()</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">MemberInformationClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">()</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">public</t>
@@ -125,7 +151,7 @@
     <t xml:space="preserve">デフォルトコンストラクタ</t>
   </si>
   <si>
-    <t xml:space="preserve">KaiinClass(Map requestParams)</t>
+    <t xml:space="preserve">MemberInformationClass(Map requestParams)</t>
   </si>
   <si>
     <t xml:space="preserve">リクエストパラメータのMap から、各フィールドにパラメータをセットする</t>
@@ -149,7 +175,7 @@
     <t xml:space="preserve">セッター：名前</t>
   </si>
   <si>
-    <t xml:space="preserve">setPhoneNumber(int phoneNumber)</t>
+    <t xml:space="preserve">setPhoneNumber(String phoneNumber)</t>
   </si>
   <si>
     <t xml:space="preserve">セッター：電話番号</t>
@@ -197,7 +223,7 @@
     <t xml:space="preserve">ゲッター：名前</t>
   </si>
   <si>
-    <t xml:space="preserve">getPhoneNumber(int phoneNumber)</t>
+    <t xml:space="preserve">getPhoneNumber(String phoneNumber)</t>
   </si>
   <si>
     <t xml:space="preserve">ゲッター：電話番号</t>
@@ -236,6 +262,12 @@
     <t xml:space="preserve">パスワード</t>
   </si>
   <si>
+    <t xml:space="preserve">MemberInformationLoginClass()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemberInformationLoginClass(Map requestParams)</t>
+  </si>
+  <si>
     <t xml:space="preserve">setLogin_id(String login_id)</t>
   </si>
   <si>
@@ -260,7 +292,7 @@
     <t xml:space="preserve">ゲッター：パスワード</t>
   </si>
   <si>
-    <t xml:space="preserve">AccommodationInformationClass (会員モデル）</t>
+    <t xml:space="preserve">AccommodationInformationClass (宿予約情報クラス）</t>
   </si>
   <si>
     <t xml:space="preserve">ac_id</t>
@@ -284,10 +316,10 @@
     <t xml:space="preserve">ac_address</t>
   </si>
   <si>
-    <t xml:space="preserve">YadoClass()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YadoClass(Map requestParams)</t>
+    <t xml:space="preserve">AccommodationInformationClass()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccommodationInformationClass(Map requestParams)</t>
   </si>
   <si>
     <t xml:space="preserve">setAc_id(int ac_id)</t>
@@ -330,6 +362,236 @@
   </si>
   <si>
     <t xml:space="preserve">getAc_address(String ac_address)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AccommodationInformationTime(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">宿予約情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">checkin_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チェックイン時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkout_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チェックアウト時間</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AccommodationInformationTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AccommodationInformationTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(Map requestParams)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setCheckin_time(String checkin_time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：チェックイン時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setCheckout_time(String checkout_time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：チェックアウト時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCheckin_time(String checkin_time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：チェックイン時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCheckout_time(String checkout_time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：チェックアウト時間</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ReservationClass(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">予約情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ci_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チェックイン日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チェックアウト日</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ReservationClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ReservationClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(Map requestParams)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setMem_id(int mem_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setCi_date(String ci_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：チェックイン日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setCo_date(String co_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッター：チェックアウト日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getMem_id(int Mem_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCi_date(String ci_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：チェックイン日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCo_date(String co_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲッター：チェックアウト日</t>
   </si>
 </sst>
 </file>
@@ -339,7 +601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -385,6 +647,27 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -523,7 +806,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,6 +849,14 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -647,19 +938,19 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +962,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -691,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -701,382 +992,380 @@
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1104,29 +1393,29 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.07"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1146,25 +1435,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -1172,158 +1461,156 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1350,30 +1637,30 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1393,230 +1680,230 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1641,14 +1928,237 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1664,14 +2174,333 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.03"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A19"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
